--- a/biology/Botanique/Sidi_Brahim_(vin)/Sidi_Brahim_(vin).xlsx
+++ b/biology/Botanique/Sidi_Brahim_(vin)/Sidi_Brahim_(vin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Sidi-Brahim est une marque de vin « des contreforts de l'Atlas ». Composée à l'origine de vins d'Algérie puis du Maroc, la production s'est déplacée ensuite en Tunisie et à nouveau depuis 2019 exclusivement au Maroc, avec des vins d'appellation Beni M'Tir[1]
+Sidi-Brahim est une marque de vin « des contreforts de l'Atlas ». Composée à l'origine de vins d'Algérie puis du Maroc, la production s'est déplacée ensuite en Tunisie et à nouveau depuis 2019 exclusivement au Maroc, avec des vins d'appellation Beni M'Tir
 Pour le Rouge, les cépages sont Carignan - Alicante Bouschet - Cinsault et Grenache, mais il existe une déclinaison Cabernet Sauvignon Merlot.
 Le rosé : Carignan - Alicante Bouschet et Aramon
 </t>
@@ -514,10 +526,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La marque a été fondée en 1924, en Algérie française par André Vigna pour commercialiser divers vins sans appellation d'origine. Elle emprunte son nom à la bataille de Sidi-Brahim (milieu du XIXe siècle)[2].
-Le Groupe Castel a acheté la marque en 2003 à la société William Pitters de Bernard Magrez, qui elle-même l'avait acquise auprès des frères Jacques et Philippe Vigna[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La marque a été fondée en 1924, en Algérie française par André Vigna pour commercialiser divers vins sans appellation d'origine. Elle emprunte son nom à la bataille de Sidi-Brahim (milieu du XIXe siècle).
+Le Groupe Castel a acheté la marque en 2003 à la société William Pitters de Bernard Magrez, qui elle-même l'avait acquise auprès des frères Jacques et Philippe Vigna.
 </t>
         </is>
       </c>
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -573,6 +589,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
